--- a/va_facility_data_2025-02-20/Evanston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Evanston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Evanston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Evanston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfb65da7a04474bce865f9bae136228d4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7f609de68cbc4c48aef6804a460189fd"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3ee8b95a5a434d2f8541ad5e3ccb1669"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb5cb009d25d44f0e8934929cca6236d4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc5d57d80cc0c4f8d81622b913cc1c7a2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbaa99b96471742babf1595073738ee6b"/>
   </x:sheets>
 </x:workbook>
 </file>
